--- a/price_summary.xlsx
+++ b/price_summary.xlsx
@@ -1,87 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Imperial\code\arsenal_tickets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B258118-4651-4A75-B734-C930D913F51D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="7272" yWindow="1992" windowWidth="11520" windowHeight="10152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="7272" yWindow="1992" windowWidth="11520" windowHeight="10152" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Ticket Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Ticket Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2025-03-19" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Seat Type</t>
-  </si>
-  <si>
-    <t>Min_Price</t>
-  </si>
-  <si>
-    <t>Avg_Price</t>
-  </si>
-  <si>
-    <t>Ticket_Count</t>
-  </si>
-  <si>
-    <t>Shortside Upper</t>
-  </si>
-  <si>
-    <t>Longside Lower</t>
-  </si>
-  <si>
-    <t>Shortside Lower</t>
-  </si>
-  <si>
-    <t>Longside Upper</t>
-  </si>
-  <si>
-    <t>Club Level</t>
-  </si>
-  <si>
-    <t>VIP &amp; Executive Box</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -104,29 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -416,120 +448,301 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col width="17.44140625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="11.33203125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="12.109375" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Seat Type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Min_Price</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Avg_Price</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Ticket_Count</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Shortside Upper</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>74</v>
+      </c>
+      <c r="C2" t="n">
+        <v>175</v>
+      </c>
+      <c r="D2" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Longside Lower</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>261</v>
+      </c>
+      <c r="D3" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Shortside Lower</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>208</v>
+      </c>
+      <c r="D4" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Longside Upper</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>105</v>
+      </c>
+      <c r="C5" t="n">
+        <v>215</v>
+      </c>
+      <c r="D5" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Club Level</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>249</v>
+      </c>
+      <c r="C6" t="n">
+        <v>668</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>VIP &amp; Executive Box</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>995</v>
+      </c>
+      <c r="C7" t="n">
+        <v>995</v>
+      </c>
+      <c r="D7" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>74</v>
-      </c>
-      <c r="C2">
-        <v>175</v>
-      </c>
-      <c r="D2">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>100</v>
-      </c>
-      <c r="C3">
-        <v>261</v>
-      </c>
-      <c r="D3">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>100</v>
-      </c>
-      <c r="C4">
-        <v>208</v>
-      </c>
-      <c r="D4">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>105</v>
-      </c>
-      <c r="C5">
-        <v>215</v>
-      </c>
-      <c r="D5">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>249</v>
-      </c>
-      <c r="C6">
-        <v>668</v>
-      </c>
-      <c r="D6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>995</v>
-      </c>
-      <c r="C7">
-        <v>995</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
+    </row>
+    <row r="8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Total Tickets</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>453</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Seat Type</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Min_Price</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Avg_Price</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Ticket_Count</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Shortside Upper</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>74</v>
+      </c>
+      <c r="C2" t="n">
+        <v>175</v>
+      </c>
+      <c r="D2" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Longside Upper</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>83</v>
+      </c>
+      <c r="C3" t="n">
+        <v>219</v>
+      </c>
+      <c r="D3" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Longside Lower</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>98</v>
+      </c>
+      <c r="C4" t="n">
+        <v>270</v>
+      </c>
+      <c r="D4" t="n">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Shortside Lower</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>218</v>
+      </c>
+      <c r="D5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Club Level</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>249</v>
+      </c>
+      <c r="C6" t="n">
+        <v>662</v>
+      </c>
+      <c r="D6" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>VIP &amp; Executive Box</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>995</v>
+      </c>
+      <c r="C7" t="n">
+        <v>995</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Total Tickets</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>452</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/price_summary.xlsx
+++ b/price_summary.xlsx
@@ -1,45 +1,90 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Imperial\code\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8465F1-BAB6-4D97-BDEE-3BA7399C8455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="7272" yWindow="1992" windowWidth="11520" windowHeight="10152" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ticket Data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="2025-03-19" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2025-03-18" sheetId="1" r:id="rId1"/>
+    <sheet name="2025-03-19" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+  <si>
+    <t>Seat Type</t>
+  </si>
+  <si>
+    <t>Min_Price</t>
+  </si>
+  <si>
+    <t>Avg_Price</t>
+  </si>
+  <si>
+    <t>Ticket_Count</t>
+  </si>
+  <si>
+    <t>Shortside Upper</t>
+  </si>
+  <si>
+    <t>Longside Lower</t>
+  </si>
+  <si>
+    <t>Shortside Lower</t>
+  </si>
+  <si>
+    <t>Longside Upper</t>
+  </si>
+  <si>
+    <t>Club Level</t>
+  </si>
+  <si>
+    <t>VIP &amp; Executive Box</t>
+  </si>
+  <si>
+    <t>Total Tickets</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -69,96 +114,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -448,150 +443,124 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="17.44140625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="9.44140625" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="11.33203125" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="12.109375" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Seat Type</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Min_Price</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Avg_Price</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Ticket_Count</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Shortside Upper</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
         <v>74</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>175</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>97</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Longside Lower</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
         <v>100</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>261</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>141</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Shortside Lower</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
         <v>100</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>208</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>105</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Longside Upper</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
         <v>105</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>215</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>89</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Club Level</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
         <v>249</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>668</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>20</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>VIP &amp; Executive Box</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
         <v>995</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>995</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>1</v>
       </c>
     </row>
-    <row r="8">
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Total Tickets</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
         <v>453</v>
       </c>
     </row>
@@ -601,144 +570,122 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Seat Type</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Min_Price</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Avg_Price</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Ticket_Count</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Shortside Upper</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
         <v>74</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>175</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>96</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Longside Upper</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
         <v>83</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>219</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>87</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Longside Lower</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
         <v>98</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>270</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>147</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Shortside Lower</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
         <v>100</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>218</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>100</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Club Level</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
         <v>249</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>662</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>21</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>VIP &amp; Executive Box</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
         <v>995</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>995</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>1</v>
       </c>
     </row>
-    <row r="8">
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Total Tickets</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
         <v>452</v>
       </c>
     </row>

--- a/price_summary.xlsx
+++ b/price_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Imperial\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8465F1-BAB6-4D97-BDEE-3BA7399C8455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E375117B-A91D-472D-997D-98E89662ECDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-03-18" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Seat Type</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>VIP &amp; Executive Box</t>
-  </si>
-  <si>
-    <t>Total Tickets</t>
   </si>
 </sst>
 </file>
@@ -444,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,14 +553,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>453</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -571,9 +560,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -681,14 +672,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>452</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/price_summary.xlsx
+++ b/price_summary.xlsx
@@ -8,20 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Imperial\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E375117B-A91D-472D-997D-98E89662ECDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C069E6-E859-4C68-B169-4819B3B1A0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-03-18" sheetId="1" r:id="rId1"/>
     <sheet name="2025-03-19" sheetId="2" r:id="rId2"/>
+    <sheet name="2025-03-20" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
   <si>
     <t>Seat Type</t>
   </si>
@@ -51,6 +65,9 @@
   </si>
   <si>
     <t>VIP &amp; Executive Box</t>
+  </si>
+  <si>
+    <t>Total Tickets</t>
   </si>
 </sst>
 </file>
@@ -441,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -553,6 +570,15 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <f>SUM(D2:D7)</f>
+        <v>453</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -560,11 +586,128 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>83</v>
+      </c>
+      <c r="C2">
+        <v>218</v>
+      </c>
+      <c r="D2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>84</v>
+      </c>
+      <c r="C3">
+        <v>175</v>
+      </c>
+      <c r="D3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>98</v>
+      </c>
+      <c r="C4">
+        <v>275</v>
+      </c>
+      <c r="D4">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>218</v>
+      </c>
+      <c r="D5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>249</v>
+      </c>
+      <c r="C6">
+        <v>689</v>
+      </c>
+      <c r="D6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>995</v>
+      </c>
+      <c r="C7">
+        <v>995</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>444</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -593,55 +736,55 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D2">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C3">
-        <v>219</v>
+        <v>277</v>
       </c>
       <c r="D3">
-        <v>87</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>218</v>
+      </c>
+      <c r="D4">
         <v>98</v>
-      </c>
-      <c r="C4">
-        <v>270</v>
-      </c>
-      <c r="D4">
-        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>100</v>
       </c>
       <c r="C5">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -652,10 +795,10 @@
         <v>249</v>
       </c>
       <c r="C6">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -670,6 +813,14 @@
       </c>
       <c r="D7">
         <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>435</v>
       </c>
     </row>
   </sheetData>

--- a/price_summary.xlsx
+++ b/price_summary.xlsx
@@ -1,51 +1,111 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Imperial\code\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CEA609-80B1-4F61-A815-5A912EE367CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2025-03-18" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="2025-03-19" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2025-03-20" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2025-03-18" sheetId="1" r:id="rId1"/>
+    <sheet name="2025-03-19" sheetId="2" r:id="rId2"/>
+    <sheet name="2025-03-20" sheetId="4" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="16">
+  <si>
+    <t>Seat Type</t>
+  </si>
+  <si>
+    <t>Min_Price</t>
+  </si>
+  <si>
+    <t>Avg_Price</t>
+  </si>
+  <si>
+    <t>Ticket_Count</t>
+  </si>
+  <si>
+    <t>Shortside Upper</t>
+  </si>
+  <si>
+    <t>Longside Lower</t>
+  </si>
+  <si>
+    <t>Shortside Lower</t>
+  </si>
+  <si>
+    <t>Longside Upper</t>
+  </si>
+  <si>
+    <t>Club Level</t>
+  </si>
+  <si>
+    <t>VIP &amp; Executive Box</t>
+  </si>
+  <si>
+    <t>Match</t>
+  </si>
+  <si>
+    <t>Arsenal - Brentford</t>
+  </si>
+  <si>
+    <t>Arsenal - Crystal Palace</t>
+  </si>
+  <si>
+    <t>Away Section</t>
+  </si>
+  <si>
+    <t>Arsenal - Fulham</t>
+  </si>
+  <si>
+    <t>Arsenal v Real Madrid : Champions League 2024-2025</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -90,99 +150,49 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -472,140 +482,138 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="17.44140625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="9.44140625" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="11.33203125" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="12.109375" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Seat Type</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Min_Price</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Avg_Price</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Ticket_Count</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Shortside Upper</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
         <v>74</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2">
         <v>175</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2">
         <v>97</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Longside Lower</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
         <v>100</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3">
         <v>261</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3">
         <v>141</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Shortside Lower</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
         <v>100</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4">
         <v>208</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4">
         <v>105</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Longside Upper</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
         <v>105</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5">
         <v>215</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5">
         <v>89</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Club Level</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
         <v>249</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6">
         <v>668</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6">
         <v>20</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>VIP &amp; Executive Box</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
         <v>995</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7">
         <v>995</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7">
         <v>1</v>
       </c>
     </row>
@@ -615,134 +623,136 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Seat Type</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Min_Price</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Avg_Price</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Ticket_Count</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Longside Upper</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
         <v>83</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2">
         <v>218</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2">
         <v>86</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Shortside Upper</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
         <v>84</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3">
         <v>175</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3">
         <v>93</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Longside Lower</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
         <v>98</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4">
         <v>275</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4">
         <v>141</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Shortside Lower</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
         <v>100</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5">
         <v>218</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5">
         <v>99</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Club Level</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
         <v>249</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6">
         <v>689</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6">
         <v>24</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>VIP &amp; Executive Box</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
         <v>995</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7">
         <v>995</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7">
         <v>1</v>
       </c>
     </row>
@@ -752,135 +762,428 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="45.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Seat Type</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Min_Price</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Avg_Price</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Ticket_Count</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Shortside Upper</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>97</v>
+      </c>
+      <c r="D2">
+        <v>257</v>
+      </c>
+      <c r="E2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>98</v>
+      </c>
+      <c r="D3">
+        <v>252</v>
+      </c>
+      <c r="E3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>105</v>
+      </c>
+      <c r="D4">
+        <v>247</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>107</v>
+      </c>
+      <c r="D5">
+        <v>327</v>
+      </c>
+      <c r="E5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>233</v>
+      </c>
+      <c r="D6">
+        <v>858</v>
+      </c>
+      <c r="E6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>140</v>
+      </c>
+      <c r="D7">
+        <v>347</v>
+      </c>
+      <c r="E7">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>148</v>
+      </c>
+      <c r="D8">
+        <v>277</v>
+      </c>
+      <c r="E8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>149</v>
+      </c>
+      <c r="D9">
+        <v>238</v>
+      </c>
+      <c r="E9">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>155</v>
+      </c>
+      <c r="D10">
+        <v>269</v>
+      </c>
+      <c r="E10">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>261</v>
+      </c>
+      <c r="D11">
+        <v>261</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>299</v>
+      </c>
+      <c r="D12">
+        <v>716</v>
+      </c>
+      <c r="E12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
         <v>84</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D13">
         <v>177</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E13">
         <v>91</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Longside Lower</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14">
         <v>96</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D14">
         <v>277</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E14">
         <v>139</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Shortside Lower</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
         <v>100</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D15">
+        <v>220</v>
+      </c>
+      <c r="E15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16">
         <v>218</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E16">
         <v>98</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Longside Upper</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>100</v>
-      </c>
-      <c r="C5" t="n">
-        <v>220</v>
-      </c>
-      <c r="D5" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Club Level</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
         <v>249</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D17">
         <v>668</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E17">
         <v>20</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>VIP &amp; Executive Box</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
         <v>995</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D18">
         <v>995</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E18">
         <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>608</v>
+      </c>
+      <c r="D19">
+        <v>746</v>
+      </c>
+      <c r="E19">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>615</v>
+      </c>
+      <c r="D20">
+        <v>878</v>
+      </c>
+      <c r="E20">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>662</v>
+      </c>
+      <c r="D21">
+        <v>869</v>
+      </c>
+      <c r="E21">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>691</v>
+      </c>
+      <c r="D22">
+        <v>1209</v>
+      </c>
+      <c r="E22">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>967</v>
+      </c>
+      <c r="D23">
+        <v>1642</v>
+      </c>
+      <c r="E23">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24">
+        <v>1658</v>
+      </c>
+      <c r="D24">
+        <v>2488</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/price_summary.xlsx
+++ b/price_summary.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Imperial\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CEA609-80B1-4F61-A815-5A912EE367CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B02C37-039F-4E57-B67B-A4B4130FB236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-03-18" sheetId="1" r:id="rId1"/>
     <sheet name="2025-03-19" sheetId="2" r:id="rId2"/>
-    <sheet name="2025-03-20" sheetId="4" r:id="rId3"/>
+    <sheet name="2025-03-20" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -24,6 +24,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="16">
   <si>
+    <t>Match</t>
+  </si>
+  <si>
     <t>Seat Type</t>
   </si>
   <si>
@@ -36,6 +39,9 @@
     <t>Ticket_Count</t>
   </si>
   <si>
+    <t>Arsenal - Fulham</t>
+  </si>
+  <si>
     <t>Shortside Upper</t>
   </si>
   <si>
@@ -54,9 +60,6 @@
     <t>VIP &amp; Executive Box</t>
   </si>
   <si>
-    <t>Match</t>
-  </si>
-  <si>
     <t>Arsenal - Brentford</t>
   </si>
   <si>
@@ -64,9 +67,6 @@
   </si>
   <si>
     <t>Away Section</t>
-  </si>
-  <si>
-    <t>Arsenal - Fulham</t>
   </si>
   <si>
     <t>Arsenal v Real Madrid : Champions League 2024-2025</t>
@@ -76,7 +76,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +102,11 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -111,7 +116,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -164,11 +169,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -177,6 +197,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -485,7 +508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -500,27 +523,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>74</v>
@@ -534,10 +557,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -551,10 +574,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>100</v>
@@ -568,10 +591,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>105</v>
@@ -585,10 +608,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>249</v>
@@ -602,10 +625,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>995</v>
@@ -639,27 +662,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>83</v>
@@ -673,10 +696,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>84</v>
@@ -690,10 +713,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>98</v>
@@ -707,10 +730,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>100</v>
@@ -724,10 +747,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>249</v>
@@ -741,10 +764,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>995</v>
@@ -762,139 +785,133 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="45.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>97</v>
+        <v>64.77</v>
       </c>
       <c r="D2">
-        <v>257</v>
+        <v>219.82952380952381</v>
       </c>
       <c r="E2">
-        <v>57</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3">
-        <v>98</v>
+        <v>83.76</v>
       </c>
       <c r="D3">
-        <v>252</v>
+        <v>177.52211111111109</v>
       </c>
       <c r="E3">
-        <v>62</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>105</v>
+        <v>96.19</v>
       </c>
       <c r="D4">
-        <v>247</v>
+        <v>276.65366906474821</v>
       </c>
       <c r="E4">
-        <v>50</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>107</v>
+        <v>99.5</v>
       </c>
       <c r="D5">
-        <v>327</v>
+        <v>217.9038775510204</v>
       </c>
       <c r="E5">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>233</v>
+        <v>248.76</v>
       </c>
       <c r="D6">
-        <v>858</v>
+        <v>625.30812500000002</v>
       </c>
       <c r="E6">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>140</v>
+        <v>995.04</v>
       </c>
       <c r="D7">
-        <v>347</v>
+        <v>995.04</v>
       </c>
       <c r="E7">
-        <v>108</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -902,16 +919,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>148</v>
+        <v>97.29</v>
       </c>
       <c r="D8">
-        <v>277</v>
+        <v>256.67614035087718</v>
       </c>
       <c r="E8">
-        <v>83</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -919,16 +936,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>149</v>
+        <v>99.5</v>
       </c>
       <c r="D9">
-        <v>238</v>
+        <v>252.79704918032789</v>
       </c>
       <c r="E9">
-        <v>85</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -936,16 +953,16 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>155</v>
+        <v>105.03</v>
       </c>
       <c r="D10">
-        <v>269</v>
+        <v>246.63720000000001</v>
       </c>
       <c r="E10">
-        <v>82</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -953,16 +970,16 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>261</v>
+        <v>107.24</v>
       </c>
       <c r="D11">
-        <v>261</v>
+        <v>326.75662499999999</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -970,64 +987,64 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>299</v>
+        <v>232.73</v>
       </c>
       <c r="D12">
-        <v>716</v>
+        <v>858.49764705882353</v>
       </c>
       <c r="E12">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="D13">
-        <v>177</v>
+        <v>346.39111111111112</v>
       </c>
       <c r="E13">
-        <v>91</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C14">
-        <v>96</v>
+        <v>148.15</v>
       </c>
       <c r="D14">
-        <v>277</v>
+        <v>274.29607142857139</v>
       </c>
       <c r="E14">
-        <v>139</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>100</v>
+        <v>149.26</v>
       </c>
       <c r="D15">
-        <v>220</v>
+        <v>238.28294117647059</v>
       </c>
       <c r="E15">
         <v>85</v>
@@ -1035,53 +1052,53 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C16">
-        <v>100</v>
+        <v>154.78</v>
       </c>
       <c r="D16">
-        <v>218</v>
+        <v>268.80939024390239</v>
       </c>
       <c r="E16">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
       <c r="C17">
-        <v>249</v>
+        <v>260.92</v>
       </c>
       <c r="D17">
-        <v>668</v>
+        <v>260.92</v>
       </c>
       <c r="E17">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C18">
-        <v>995</v>
+        <v>298.51</v>
       </c>
       <c r="D18">
-        <v>995</v>
+        <v>716.05888888888899</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1089,16 +1106,16 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C19">
-        <v>608</v>
+        <v>608.08000000000004</v>
       </c>
       <c r="D19">
-        <v>746</v>
+        <v>746.93272727272722</v>
       </c>
       <c r="E19">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1106,16 +1123,16 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C20">
-        <v>615</v>
+        <v>614.71</v>
       </c>
       <c r="D20">
-        <v>878</v>
+        <v>878.95160714285714</v>
       </c>
       <c r="E20">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1123,13 +1140,13 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C21">
-        <v>662</v>
+        <v>662.25</v>
       </c>
       <c r="D21">
-        <v>869</v>
+        <v>868.55405405405406</v>
       </c>
       <c r="E21">
         <v>37</v>
@@ -1140,16 +1157,16 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C22">
         <v>691</v>
       </c>
       <c r="D22">
-        <v>1209</v>
+        <v>1213.6112499999999</v>
       </c>
       <c r="E22">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1157,13 +1174,13 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C23">
-        <v>967</v>
+        <v>967.4</v>
       </c>
       <c r="D23">
-        <v>1642</v>
+        <v>1641.602758620689</v>
       </c>
       <c r="E23">
         <v>29</v>
@@ -1174,13 +1191,13 @@
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C24">
-        <v>1658</v>
+        <v>1658.4</v>
       </c>
       <c r="D24">
-        <v>2488</v>
+        <v>2487.6</v>
       </c>
       <c r="E24">
         <v>4</v>

--- a/price_summary.xlsx
+++ b/price_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Imperial\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B02C37-039F-4E57-B67B-A4B4130FB236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA31C7F-6934-4631-B5B8-F5BF9784C108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -820,10 +820,10 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>64.77</v>
+        <v>65</v>
       </c>
       <c r="D2">
-        <v>219.82952380952381</v>
+        <v>220</v>
       </c>
       <c r="E2">
         <v>84</v>
@@ -837,10 +837,10 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>83.76</v>
+        <v>84</v>
       </c>
       <c r="D3">
-        <v>177.52211111111109</v>
+        <v>178</v>
       </c>
       <c r="E3">
         <v>90</v>
@@ -854,10 +854,10 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>96.19</v>
+        <v>96</v>
       </c>
       <c r="D4">
-        <v>276.65366906474821</v>
+        <v>277</v>
       </c>
       <c r="E4">
         <v>139</v>
@@ -871,10 +871,10 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="D5">
-        <v>217.9038775510204</v>
+        <v>218</v>
       </c>
       <c r="E5">
         <v>98</v>
@@ -888,10 +888,10 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>248.76</v>
+        <v>249</v>
       </c>
       <c r="D6">
-        <v>625.30812500000002</v>
+        <v>625</v>
       </c>
       <c r="E6">
         <v>16</v>
@@ -905,10 +905,10 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>995.04</v>
+        <v>995</v>
       </c>
       <c r="D7">
-        <v>995.04</v>
+        <v>995</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -922,10 +922,10 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>97.29</v>
+        <v>97</v>
       </c>
       <c r="D8">
-        <v>256.67614035087718</v>
+        <v>257</v>
       </c>
       <c r="E8">
         <v>57</v>
@@ -939,10 +939,10 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="D9">
-        <v>252.79704918032789</v>
+        <v>253</v>
       </c>
       <c r="E9">
         <v>61</v>
@@ -956,10 +956,10 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>105.03</v>
+        <v>105</v>
       </c>
       <c r="D10">
-        <v>246.63720000000001</v>
+        <v>246</v>
       </c>
       <c r="E10">
         <v>50</v>
@@ -973,10 +973,10 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>107.24</v>
+        <v>107</v>
       </c>
       <c r="D11">
-        <v>326.75662499999999</v>
+        <v>327</v>
       </c>
       <c r="E11">
         <v>80</v>
@@ -990,10 +990,10 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>232.73</v>
+        <v>233</v>
       </c>
       <c r="D12">
-        <v>858.49764705882353</v>
+        <v>858</v>
       </c>
       <c r="E12">
         <v>17</v>
@@ -1010,7 +1010,7 @@
         <v>140</v>
       </c>
       <c r="D13">
-        <v>346.39111111111112</v>
+        <v>346</v>
       </c>
       <c r="E13">
         <v>108</v>
@@ -1024,10 +1024,10 @@
         <v>8</v>
       </c>
       <c r="C14">
-        <v>148.15</v>
+        <v>148</v>
       </c>
       <c r="D14">
-        <v>274.29607142857139</v>
+        <v>274</v>
       </c>
       <c r="E14">
         <v>84</v>
@@ -1041,10 +1041,10 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <v>149.26</v>
+        <v>149</v>
       </c>
       <c r="D15">
-        <v>238.28294117647059</v>
+        <v>238</v>
       </c>
       <c r="E15">
         <v>85</v>
@@ -1058,10 +1058,10 @@
         <v>9</v>
       </c>
       <c r="C16">
-        <v>154.78</v>
+        <v>155</v>
       </c>
       <c r="D16">
-        <v>268.80939024390239</v>
+        <v>269</v>
       </c>
       <c r="E16">
         <v>82</v>
@@ -1075,10 +1075,10 @@
         <v>14</v>
       </c>
       <c r="C17">
-        <v>260.92</v>
+        <v>261</v>
       </c>
       <c r="D17">
-        <v>260.92</v>
+        <v>261</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1092,10 +1092,10 @@
         <v>10</v>
       </c>
       <c r="C18">
-        <v>298.51</v>
+        <v>299</v>
       </c>
       <c r="D18">
-        <v>716.05888888888899</v>
+        <v>716</v>
       </c>
       <c r="E18">
         <v>18</v>
@@ -1109,10 +1109,10 @@
         <v>6</v>
       </c>
       <c r="C19">
-        <v>608.08000000000004</v>
+        <v>608</v>
       </c>
       <c r="D19">
-        <v>746.93272727272722</v>
+        <v>747</v>
       </c>
       <c r="E19">
         <v>33</v>
@@ -1126,10 +1126,10 @@
         <v>9</v>
       </c>
       <c r="C20">
-        <v>614.71</v>
+        <v>615</v>
       </c>
       <c r="D20">
-        <v>878.95160714285714</v>
+        <v>879</v>
       </c>
       <c r="E20">
         <v>56</v>
@@ -1143,10 +1143,10 @@
         <v>8</v>
       </c>
       <c r="C21">
-        <v>662.25</v>
+        <v>662</v>
       </c>
       <c r="D21">
-        <v>868.55405405405406</v>
+        <v>869</v>
       </c>
       <c r="E21">
         <v>37</v>
@@ -1163,7 +1163,7 @@
         <v>691</v>
       </c>
       <c r="D22">
-        <v>1213.6112499999999</v>
+        <v>1214</v>
       </c>
       <c r="E22">
         <v>88</v>
@@ -1177,10 +1177,10 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>967.4</v>
+        <v>967</v>
       </c>
       <c r="D23">
-        <v>1641.602758620689</v>
+        <v>1641</v>
       </c>
       <c r="E23">
         <v>29</v>
@@ -1194,10 +1194,10 @@
         <v>14</v>
       </c>
       <c r="C24">
-        <v>1658.4</v>
+        <v>1658</v>
       </c>
       <c r="D24">
-        <v>2487.6</v>
+        <v>2488</v>
       </c>
       <c r="E24">
         <v>4</v>

--- a/price_summary.xlsx
+++ b/price_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Imperial\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF02381-845C-44E6-B4CD-5C5990EF13D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D54506D-1637-44A3-9F82-7F986AE69D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -812,11 +812,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="45.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -1236,11 +1242,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="45.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">

--- a/price_summary.xlsx
+++ b/price_summary.xlsx
@@ -11,6 +11,7 @@
     <sheet name="2025-03-20" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="2025-03-21" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="2025-03-22" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="2025-03-23" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2560,4 +2561,575 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>Match</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>Seat Type</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>Min_Price</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>Avg_Price</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
+        <is>
+          <t>Ticket_Count</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Arsenal - Fulham</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Shortside Upper</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>84</v>
+      </c>
+      <c r="D2" t="n">
+        <v>202</v>
+      </c>
+      <c r="E2" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Arsenal - Fulham</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Longside Lower</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>98</v>
+      </c>
+      <c r="D3" t="n">
+        <v>295</v>
+      </c>
+      <c r="E3" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Arsenal - Fulham</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Shortside Lower</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>235</v>
+      </c>
+      <c r="E4" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Arsenal - Fulham</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Longside Upper</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>110</v>
+      </c>
+      <c r="D5" t="n">
+        <v>260</v>
+      </c>
+      <c r="E5" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Arsenal - Fulham</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Club Level</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>213</v>
+      </c>
+      <c r="D6" t="n">
+        <v>611</v>
+      </c>
+      <c r="E6" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Arsenal - Fulham</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>VIP &amp; Executive Box</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>995</v>
+      </c>
+      <c r="D7" t="n">
+        <v>995</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Arsenal - Brentford</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Longside Upper</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>83</v>
+      </c>
+      <c r="D8" t="n">
+        <v>256</v>
+      </c>
+      <c r="E8" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Arsenal - Brentford</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Shortside Lower</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>95</v>
+      </c>
+      <c r="D9" t="n">
+        <v>257</v>
+      </c>
+      <c r="E9" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Arsenal - Brentford</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Shortside Upper</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>105</v>
+      </c>
+      <c r="D10" t="n">
+        <v>246</v>
+      </c>
+      <c r="E10" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Arsenal - Brentford</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Longside Lower</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>107</v>
+      </c>
+      <c r="D11" t="n">
+        <v>332</v>
+      </c>
+      <c r="E11" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Arsenal - Brentford</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Away Section</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>138</v>
+      </c>
+      <c r="D12" t="n">
+        <v>138</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Arsenal - Brentford</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Club Level</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>233</v>
+      </c>
+      <c r="D13" t="n">
+        <v>855</v>
+      </c>
+      <c r="E13" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Arsenal - Crystal Palace</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Shortside Upper</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>119</v>
+      </c>
+      <c r="D14" t="n">
+        <v>237</v>
+      </c>
+      <c r="E14" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Arsenal - Crystal Palace</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Longside Lower</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>128</v>
+      </c>
+      <c r="D15" t="n">
+        <v>345</v>
+      </c>
+      <c r="E15" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Arsenal - Crystal Palace</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Shortside Lower</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>133</v>
+      </c>
+      <c r="D16" t="n">
+        <v>274</v>
+      </c>
+      <c r="E16" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Arsenal - Crystal Palace</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Longside Upper</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>155</v>
+      </c>
+      <c r="D17" t="n">
+        <v>269</v>
+      </c>
+      <c r="E17" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Arsenal - Crystal Palace</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Away Section</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>261</v>
+      </c>
+      <c r="D18" t="n">
+        <v>261</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Arsenal - Crystal Palace</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Club Level</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>299</v>
+      </c>
+      <c r="D19" t="n">
+        <v>716</v>
+      </c>
+      <c r="E19" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Arsenal v Real Madrid : Champions League 2024-2025</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Shortside Upper</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>592</v>
+      </c>
+      <c r="D20" t="n">
+        <v>750</v>
+      </c>
+      <c r="E20" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Arsenal v Real Madrid : Champions League 2024-2025</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Longside Upper</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>603</v>
+      </c>
+      <c r="D21" t="n">
+        <v>871</v>
+      </c>
+      <c r="E21" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Arsenal v Real Madrid : Champions League 2024-2025</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Shortside Lower</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>662</v>
+      </c>
+      <c r="D22" t="n">
+        <v>850</v>
+      </c>
+      <c r="E22" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Arsenal v Real Madrid : Champions League 2024-2025</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Longside Lower</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>663</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1201</v>
+      </c>
+      <c r="E23" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Arsenal v Real Madrid : Champions League 2024-2025</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Club Level</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>884</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1638</v>
+      </c>
+      <c r="E24" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Arsenal v Real Madrid : Champions League 2024-2025</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Away Section</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1658</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2488</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Arsenal v Real Madrid : Champions League 2024-2025</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>VIP &amp; Executive Box</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>3870</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4699</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/price_summary.xlsx
+++ b/price_summary.xlsx
@@ -12,6 +12,7 @@
     <sheet name="2025-03-21" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="2025-03-22" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="2025-03-23" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="2025-03-24" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -3132,4 +3133,575 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>Match</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>Seat Type</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>Min_Price</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>Avg_Price</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
+        <is>
+          <t>Ticket_Count</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Arsenal - Fulham</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Shortside Upper</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Arsenal - Fulham</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Shortside Lower</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Arsenal - Fulham</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Longside Upper</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Arsenal - Fulham</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Longside Lower</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Arsenal - Fulham</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Club Level</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Arsenal - Fulham</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>VIP &amp; Executive Box</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Arsenal - Brentford</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Longside Upper</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Arsenal - Brentford</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Shortside Lower</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Arsenal - Brentford</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Shortside Upper</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Arsenal - Brentford</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Longside Lower</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Arsenal - Brentford</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Away Section</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Arsenal - Brentford</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Club Level</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Arsenal - Crystal Palace</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Shortside Upper</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Arsenal - Crystal Palace</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Longside Lower</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Arsenal - Crystal Palace</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Shortside Lower</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Arsenal - Crystal Palace</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Longside Upper</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Arsenal - Crystal Palace</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Away Section</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Arsenal - Crystal Palace</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Club Level</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Arsenal v Real Madrid : Champions League 2024-2025</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Shortside Upper</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Arsenal v Real Madrid : Champions League 2024-2025</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Longside Upper</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Arsenal v Real Madrid : Champions League 2024-2025</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Shortside Lower</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Arsenal v Real Madrid : Champions League 2024-2025</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Longside Lower</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Arsenal v Real Madrid : Champions League 2024-2025</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Club Level</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Arsenal v Real Madrid : Champions League 2024-2025</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Away Section</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Arsenal v Real Madrid : Champions League 2024-2025</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>VIP &amp; Executive Box</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>